--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/4_fold/55.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/4_fold/55.xlsx
@@ -479,13 +479,13 @@
         <v>0.03320588054125269</v>
       </c>
       <c r="E2" t="n">
-        <v>-1.921371959992606</v>
+        <v>-1.932302610025193</v>
       </c>
       <c r="F2" t="n">
-        <v>0.3885051524940015</v>
+        <v>0.3890468303357286</v>
       </c>
       <c r="G2" t="n">
-        <v>-0.2306822622351959</v>
+        <v>-0.2285432917820147</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>0.08777580809951888</v>
       </c>
       <c r="E3" t="n">
-        <v>-1.935959300468874</v>
+        <v>-1.947037415358644</v>
       </c>
       <c r="F3" t="n">
-        <v>0.3066125151230235</v>
+        <v>0.307611188017205</v>
       </c>
       <c r="G3" t="n">
-        <v>-0.2119133440265646</v>
+        <v>-0.2085187322152019</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>0.1431255285688946</v>
       </c>
       <c r="E4" t="n">
-        <v>-2.001727166723857</v>
+        <v>-2.016698499848034</v>
       </c>
       <c r="F4" t="n">
-        <v>0.2830969805708479</v>
+        <v>0.2806382595857577</v>
       </c>
       <c r="G4" t="n">
-        <v>-0.2301347442011052</v>
+        <v>-0.2260539097870153</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>0.1890798979872537</v>
       </c>
       <c r="E5" t="n">
-        <v>-2.071169243999611</v>
+        <v>-2.082031271771926</v>
       </c>
       <c r="F5" t="n">
-        <v>0.2565109648834915</v>
+        <v>0.2566832505582187</v>
       </c>
       <c r="G5" t="n">
-        <v>-0.2361048808448308</v>
+        <v>-0.233127842787468</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>0.2212495156698967</v>
       </c>
       <c r="E6" t="n">
-        <v>-2.035180518606802</v>
+        <v>-2.049366345858071</v>
       </c>
       <c r="F6" t="n">
-        <v>0.2478455794639483</v>
+        <v>0.2439297304841312</v>
       </c>
       <c r="G6" t="n">
-        <v>-0.2243471135687431</v>
+        <v>-0.2211890295481076</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>0.237825653861055</v>
       </c>
       <c r="E7" t="n">
-        <v>-1.906556121990109</v>
+        <v>-1.916652354538743</v>
       </c>
       <c r="F7" t="n">
-        <v>0.2582528022559455</v>
+        <v>0.2592835962081271</v>
       </c>
       <c r="G7" t="n">
-        <v>-0.2091699136637472</v>
+        <v>-0.2074382966279294</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>0.2416050903693364</v>
       </c>
       <c r="E8" t="n">
-        <v>-1.632813165473729</v>
+        <v>-1.645029387850362</v>
       </c>
       <c r="F8" t="n">
-        <v>0.2546829846736737</v>
+        <v>0.2561839141111279</v>
       </c>
       <c r="G8" t="n">
-        <v>-0.1785089037546645</v>
+        <v>-0.1811180096931183</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>0.2368829039833921</v>
       </c>
       <c r="E9" t="n">
-        <v>-1.255335252146375</v>
+        <v>-1.267989488950281</v>
       </c>
       <c r="F9" t="n">
-        <v>0.2379493735037692</v>
+        <v>0.241165859448041</v>
       </c>
       <c r="G9" t="n">
-        <v>-0.1193871764094985</v>
+        <v>-0.1232709043313157</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>0.2298978768106303</v>
       </c>
       <c r="E10" t="n">
-        <v>-0.7639385465739618</v>
+        <v>-0.7798194896587758</v>
       </c>
       <c r="F10" t="n">
-        <v>0.2640594135134894</v>
+        <v>0.2654274785746709</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.02183260316734291</v>
+        <v>-0.02489724411016027</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>0.228507002888456</v>
       </c>
       <c r="E11" t="n">
-        <v>-0.2273372920589241</v>
+        <v>-0.244097184094465</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1655017872328795</v>
+        <v>0.1604208198765172</v>
       </c>
       <c r="G11" t="n">
-        <v>0.06689451931717873</v>
+        <v>0.06315679620445246</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>0.2434140830495858</v>
       </c>
       <c r="E12" t="n">
-        <v>0.4269934802184457</v>
+        <v>0.4212277503074472</v>
       </c>
       <c r="F12" t="n">
-        <v>0.04526244680227545</v>
+        <v>0.04007781603145865</v>
       </c>
       <c r="G12" t="n">
-        <v>0.1677064598501516</v>
+        <v>0.162407945328244</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>0.2844116321290728</v>
       </c>
       <c r="E13" t="n">
-        <v>1.115753646527534</v>
+        <v>1.10779492438399</v>
       </c>
       <c r="F13" t="n">
-        <v>-0.1207815223363163</v>
+        <v>-0.126047915800224</v>
       </c>
       <c r="G13" t="n">
-        <v>0.2955760116038446</v>
+        <v>0.2933567385056634</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>0.3584052331241068</v>
       </c>
       <c r="E14" t="n">
-        <v>1.829588678749887</v>
+        <v>1.824136859178434</v>
       </c>
       <c r="F14" t="n">
-        <v>-0.3295348182301694</v>
+        <v>-0.3463166109870739</v>
       </c>
       <c r="G14" t="n">
-        <v>0.444051222064532</v>
+        <v>0.439973307746624</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>0.4687612185283602</v>
       </c>
       <c r="E15" t="n">
-        <v>2.5282538113077</v>
+        <v>2.528750227658608</v>
       </c>
       <c r="F15" t="n">
-        <v>-0.6041070820621866</v>
+        <v>-0.6183381708042737</v>
       </c>
       <c r="G15" t="n">
-        <v>0.6331274498372085</v>
+        <v>0.6279252984893008</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>0.6144018972275215</v>
       </c>
       <c r="E16" t="n">
-        <v>3.193149491570885</v>
+        <v>3.200097860435519</v>
       </c>
       <c r="F16" t="n">
-        <v>-0.9270565793383726</v>
+        <v>-0.9377514316042788</v>
       </c>
       <c r="G16" t="n">
-        <v>0.7858134389920766</v>
+        <v>0.78303934761935</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>0.7906788001299033</v>
       </c>
       <c r="E17" t="n">
-        <v>3.843868104871346</v>
+        <v>3.857461152597706</v>
       </c>
       <c r="F17" t="n">
-        <v>-1.185375587822394</v>
+        <v>-1.197232638368664</v>
       </c>
       <c r="G17" t="n">
-        <v>0.9857057030222047</v>
+        <v>0.9822833502971148</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>0.9917066116418106</v>
       </c>
       <c r="E18" t="n">
-        <v>4.381751281610202</v>
+        <v>4.397341675124925</v>
       </c>
       <c r="F18" t="n">
-        <v>-1.549302794818024</v>
+        <v>-1.558400354472476</v>
       </c>
       <c r="G18" t="n">
-        <v>1.184037175643152</v>
+        <v>1.180950633978971</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>1.208163120413047</v>
       </c>
       <c r="E19" t="n">
-        <v>4.905809262976243</v>
+        <v>4.926479163799238</v>
       </c>
       <c r="F19" t="n">
-        <v>-1.826189964898177</v>
+        <v>-1.840065531930127</v>
       </c>
       <c r="G19" t="n">
-        <v>1.37388722890401</v>
+        <v>1.376166363973918</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>1.426909970547496</v>
       </c>
       <c r="E20" t="n">
-        <v>5.26436641309351</v>
+        <v>5.287725722499959</v>
       </c>
       <c r="F20" t="n">
-        <v>-2.148729188660817</v>
+        <v>-2.160690632645587</v>
       </c>
       <c r="G20" t="n">
-        <v>1.584703572750317</v>
+        <v>1.585575221460589</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>1.632134216719791</v>
       </c>
       <c r="E21" t="n">
-        <v>5.574452886688791</v>
+        <v>5.599540893034875</v>
       </c>
       <c r="F21" t="n">
-        <v>-2.456736553774644</v>
+        <v>-2.475517152368002</v>
       </c>
       <c r="G21" t="n">
-        <v>1.762406025894814</v>
+        <v>1.765171356978996</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>1.811262378513842</v>
       </c>
       <c r="E22" t="n">
-        <v>5.806365465400638</v>
+        <v>5.836455596506175</v>
       </c>
       <c r="F22" t="n">
-        <v>-2.766542698136469</v>
+        <v>-2.785493392332419</v>
       </c>
       <c r="G22" t="n">
-        <v>1.890704831787234</v>
+        <v>1.892689037142779</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>1.956602720170796</v>
       </c>
       <c r="E23" t="n">
-        <v>5.948603350416963</v>
+        <v>5.984088359218408</v>
       </c>
       <c r="F23" t="n">
-        <v>-3.01901129392022</v>
+        <v>-3.037242184407352</v>
       </c>
       <c r="G23" t="n">
-        <v>2.003798696860931</v>
+        <v>2.009936739035111</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>2.063832781016667</v>
       </c>
       <c r="E24" t="n">
-        <v>6.040107484370393</v>
+        <v>6.074770486096656</v>
       </c>
       <c r="F24" t="n">
-        <v>-3.25214228276393</v>
+        <v>-3.270605320897516</v>
       </c>
       <c r="G24" t="n">
-        <v>2.107870924780904</v>
+        <v>2.111764873039357</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>2.132825563635554</v>
       </c>
       <c r="E25" t="n">
-        <v>6.049809503934481</v>
+        <v>6.087429103044835</v>
       </c>
       <c r="F25" t="n">
-        <v>-3.42698085157811</v>
+        <v>-3.444778107782242</v>
       </c>
       <c r="G25" t="n">
-        <v>2.171377176543068</v>
+        <v>2.170282140474887</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>2.164721943528042</v>
       </c>
       <c r="E26" t="n">
-        <v>5.99937214263404</v>
+        <v>6.035794502309849</v>
       </c>
       <c r="F26" t="n">
-        <v>-3.590671953218203</v>
+        <v>-3.609712440371743</v>
       </c>
       <c r="G26" t="n">
-        <v>2.19716746602088</v>
+        <v>2.196104551010698</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>2.162994904393584</v>
       </c>
       <c r="E27" t="n">
-        <v>5.899313586915977</v>
+        <v>5.935484818320148</v>
       </c>
       <c r="F27" t="n">
-        <v>-3.674771453278589</v>
+        <v>-3.697140850079402</v>
       </c>
       <c r="G27" t="n">
-        <v>2.197309090685698</v>
+        <v>2.197471156023788</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>2.132852130021846</v>
       </c>
       <c r="E28" t="n">
-        <v>5.829732075047541</v>
+        <v>5.863302960801804</v>
       </c>
       <c r="F28" t="n">
-        <v>-3.74354117840848</v>
+        <v>-3.764498708705383</v>
       </c>
       <c r="G28" t="n">
-        <v>2.207733834054786</v>
+        <v>2.20587665288315</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>2.080194454579875</v>
       </c>
       <c r="E29" t="n">
-        <v>5.636758978920229</v>
+        <v>5.667278364164493</v>
       </c>
       <c r="F29" t="n">
-        <v>-3.776980659834562</v>
+        <v>-3.801153216027646</v>
       </c>
       <c r="G29" t="n">
-        <v>2.19745801559097</v>
+        <v>2.201573891159242</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>2.010711135426971</v>
       </c>
       <c r="E30" t="n">
-        <v>5.429541653618012</v>
+        <v>5.456679567483731</v>
       </c>
       <c r="F30" t="n">
-        <v>-3.797369501400056</v>
+        <v>-3.824710361950413</v>
       </c>
       <c r="G30" t="n">
-        <v>2.153411284784437</v>
+        <v>2.155683119613891</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>1.928072599968671</v>
       </c>
       <c r="E31" t="n">
-        <v>5.153338516068449</v>
+        <v>5.178333079336715</v>
       </c>
       <c r="F31" t="n">
-        <v>-3.691973739885676</v>
+        <v>-3.721698858968486</v>
       </c>
       <c r="G31" t="n">
-        <v>2.069257032920641</v>
+        <v>2.072618063625913</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>1.83381019636137</v>
       </c>
       <c r="E32" t="n">
-        <v>4.845075642538714</v>
+        <v>4.871442651012434</v>
       </c>
       <c r="F32" t="n">
-        <v>-3.610003719965879</v>
+        <v>-3.638986404594462</v>
       </c>
       <c r="G32" t="n">
-        <v>1.919692626584136</v>
+        <v>1.926540252130498</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>1.728948984641663</v>
       </c>
       <c r="E33" t="n">
-        <v>4.564523021726335</v>
+        <v>4.58909855119251</v>
       </c>
       <c r="F33" t="n">
-        <v>-3.47842856615746</v>
+        <v>-3.504104971884181</v>
       </c>
       <c r="G33" t="n">
-        <v>1.828471741960342</v>
+        <v>1.834357195814795</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>1.613896872116249</v>
       </c>
       <c r="E34" t="n">
-        <v>4.237476629507059</v>
+        <v>4.259264927167689</v>
       </c>
       <c r="F34" t="n">
-        <v>-3.372883149713761</v>
+        <v>-3.392793095505438</v>
       </c>
       <c r="G34" t="n">
-        <v>1.708822260958465</v>
+        <v>1.710972911796374</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>1.489765787820774</v>
       </c>
       <c r="E35" t="n">
-        <v>3.892886299427424</v>
+        <v>3.914341706123327</v>
       </c>
       <c r="F35" t="n">
-        <v>-3.255171882552566</v>
+        <v>-3.27366558169606</v>
       </c>
       <c r="G35" t="n">
-        <v>1.590159772466042</v>
+        <v>1.596315335217313</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>1.358038547346828</v>
       </c>
       <c r="E36" t="n">
-        <v>3.555964141921242</v>
+        <v>3.578190454009145</v>
       </c>
       <c r="F36" t="n">
-        <v>-3.125488951069964</v>
+        <v>-3.147223956975276</v>
       </c>
       <c r="G36" t="n">
-        <v>1.451081431518443</v>
+        <v>1.452751726534443</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>1.222805420533912</v>
       </c>
       <c r="E37" t="n">
-        <v>3.216092687271424</v>
+        <v>3.230588044717966</v>
       </c>
       <c r="F37" t="n">
-        <v>-2.996128690215453</v>
+        <v>-3.009496890535813</v>
       </c>
       <c r="G37" t="n">
-        <v>1.320594013537751</v>
+        <v>1.321693429750205</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>1.08824259188666</v>
       </c>
       <c r="E38" t="n">
-        <v>2.852691097588522</v>
+        <v>2.870144512467244</v>
       </c>
       <c r="F38" t="n">
-        <v>-2.945594965741012</v>
+        <v>-2.955710178914828</v>
       </c>
       <c r="G38" t="n">
-        <v>1.174529342475154</v>
+        <v>1.17616167624079</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>0.9581817557917762</v>
       </c>
       <c r="E39" t="n">
-        <v>2.511339154174522</v>
+        <v>2.526329467923882</v>
       </c>
       <c r="F39" t="n">
-        <v>-2.806274986834368</v>
+        <v>-2.81591057421032</v>
       </c>
       <c r="G39" t="n">
-        <v>1.071709835817182</v>
+        <v>1.074914641376726</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>0.8363928840190177</v>
       </c>
       <c r="E40" t="n">
-        <v>2.195857802883334</v>
+        <v>2.209040577096149</v>
       </c>
       <c r="F40" t="n">
-        <v>-2.692105796341717</v>
+        <v>-2.699411876988624</v>
       </c>
       <c r="G40" t="n">
-        <v>0.9521289770755774</v>
+        <v>0.954917668929213</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>0.7253737589197974</v>
       </c>
       <c r="E41" t="n">
-        <v>1.862614966566242</v>
+        <v>1.876578866507693</v>
       </c>
       <c r="F41" t="n">
-        <v>-2.564307056920433</v>
+        <v>-2.570220981712659</v>
       </c>
       <c r="G41" t="n">
-        <v>0.8301682399457919</v>
+        <v>0.8333088033893365</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>0.6268485382549098</v>
       </c>
       <c r="E42" t="n">
-        <v>1.533651531203603</v>
+        <v>1.546666399885963</v>
       </c>
       <c r="F42" t="n">
-        <v>-2.495243132100224</v>
+        <v>-2.503993930333086</v>
       </c>
       <c r="G42" t="n">
-        <v>0.7135395984440051</v>
+        <v>0.7172627210758222</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>0.5408503254761097</v>
       </c>
       <c r="E43" t="n">
-        <v>1.267045289755584</v>
+        <v>1.28074492099258</v>
       </c>
       <c r="F43" t="n">
-        <v>-2.417256123372427</v>
+        <v>-2.423661354347244</v>
       </c>
       <c r="G43" t="n">
-        <v>0.6511123222210219</v>
+        <v>0.6535126412824758</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>0.4654580744636704</v>
       </c>
       <c r="E44" t="n">
-        <v>0.994689378925566</v>
+        <v>1.011932546879198</v>
       </c>
       <c r="F44" t="n">
-        <v>-2.306058130744775</v>
+        <v>-2.309652769144592</v>
       </c>
       <c r="G44" t="n">
-        <v>0.5429096182518691</v>
+        <v>0.5462429080434137</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>0.3994039743083959</v>
       </c>
       <c r="E45" t="n">
-        <v>0.7694068785945355</v>
+        <v>0.7901862830243481</v>
       </c>
       <c r="F45" t="n">
-        <v>-2.26116530206956</v>
+        <v>-2.265831615768104</v>
       </c>
       <c r="G45" t="n">
-        <v>0.436951008198443</v>
+        <v>0.4401193125557148</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>0.3402475589315099</v>
       </c>
       <c r="E46" t="n">
-        <v>0.5335244291235079</v>
+        <v>0.5560047895792292</v>
       </c>
       <c r="F46" t="n">
-        <v>-2.168065335552767</v>
+        <v>-2.174250829289901</v>
       </c>
       <c r="G46" t="n">
-        <v>0.3641296496162807</v>
+        <v>0.3715919554089151</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>0.286261478528507</v>
       </c>
       <c r="E47" t="n">
-        <v>0.3351929565025612</v>
+        <v>0.3577477794109188</v>
       </c>
       <c r="F47" t="n">
-        <v>-2.073935305107837</v>
+        <v>-2.08420674342738</v>
       </c>
       <c r="G47" t="n">
-        <v>0.2842533386588476</v>
+        <v>0.2919740729635728</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>0.2362016259855383</v>
       </c>
       <c r="E48" t="n">
-        <v>0.2157829233875933</v>
+        <v>0.2385786542309508</v>
       </c>
       <c r="F48" t="n">
-        <v>-1.970547109718456</v>
+        <v>-1.980124295170772</v>
       </c>
       <c r="G48" t="n">
-        <v>0.1936675749545992</v>
+        <v>0.2026877520602332</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>0.1896992375619188</v>
       </c>
       <c r="E49" t="n">
-        <v>0.08867989688162742</v>
+        <v>0.1088796622193493</v>
       </c>
       <c r="F49" t="n">
-        <v>-1.869743199449983</v>
+        <v>-1.881315540618525</v>
       </c>
       <c r="G49" t="n">
-        <v>0.1422140201828858</v>
+        <v>0.1508268438711562</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>0.146500850487995</v>
       </c>
       <c r="E50" t="n">
-        <v>-0.01641728479816254</v>
+        <v>0.003909504723468364</v>
       </c>
       <c r="F50" t="n">
-        <v>-1.783145557106052</v>
+        <v>-1.797160558730684</v>
       </c>
       <c r="G50" t="n">
-        <v>0.07509998958808561</v>
+        <v>0.08425157102190134</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>0.1063785514787359</v>
       </c>
       <c r="E51" t="n">
-        <v>-0.1046786519416843</v>
+        <v>-0.08654631470068916</v>
       </c>
       <c r="F51" t="n">
-        <v>-1.653199816967087</v>
+        <v>-1.667703934702174</v>
       </c>
       <c r="G51" t="n">
-        <v>0.01409626025373836</v>
+        <v>0.02617377806173512</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>0.06860445693660965</v>
       </c>
       <c r="E52" t="n">
-        <v>-0.1991145624616589</v>
+        <v>-0.1895454072738433</v>
       </c>
       <c r="F52" t="n">
-        <v>-1.529738150399847</v>
+        <v>-1.547924509420206</v>
       </c>
       <c r="G52" t="n">
-        <v>-0.01800581712107121</v>
+        <v>-0.009947811707346096</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>0.03290650975621057</v>
       </c>
       <c r="E53" t="n">
-        <v>-0.3161768382464457</v>
+        <v>-0.3086006487027205</v>
       </c>
       <c r="F53" t="n">
-        <v>-1.418961381646422</v>
+        <v>-1.436096506041327</v>
       </c>
       <c r="G53" t="n">
-        <v>-0.08345977303650817</v>
+        <v>-0.07691437744496447</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>-0.001474708130446954</v>
       </c>
       <c r="E54" t="n">
-        <v>-0.3497302034236185</v>
+        <v>-0.3424489435942568</v>
       </c>
       <c r="F54" t="n">
-        <v>-1.348410397845623</v>
+        <v>-1.364377483767801</v>
       </c>
       <c r="G54" t="n">
-        <v>-0.1468200199895821</v>
+        <v>-0.1402498035804929</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>-0.0343872116989655</v>
       </c>
       <c r="E55" t="n">
-        <v>-0.4753615014539484</v>
+        <v>-0.4704513597242224</v>
       </c>
       <c r="F55" t="n">
-        <v>-1.299425784395636</v>
+        <v>-1.318619576598722</v>
       </c>
       <c r="G55" t="n">
-        <v>-0.1517637428253989</v>
+        <v>-0.1495006682844904</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>-0.06548067082141021</v>
       </c>
       <c r="E56" t="n">
-        <v>-0.5494779226927466</v>
+        <v>-0.5487975402823833</v>
       </c>
       <c r="F56" t="n">
-        <v>-1.224414353677111</v>
+        <v>-1.235277111473472</v>
       </c>
       <c r="G56" t="n">
-        <v>-0.2031472152887488</v>
+        <v>-0.200249019828295</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>-0.09421662831427936</v>
       </c>
       <c r="E57" t="n">
-        <v>-0.6458717577026298</v>
+        <v>-0.6476909776239022</v>
       </c>
       <c r="F57" t="n">
-        <v>-1.183080392223486</v>
+        <v>-1.194108135454119</v>
       </c>
       <c r="G57" t="n">
-        <v>-0.2289433449589237</v>
+        <v>-0.2288922432757418</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>-0.1203922812319291</v>
       </c>
       <c r="E58" t="n">
-        <v>-0.6653619396681701</v>
+        <v>-0.6705699312084414</v>
       </c>
       <c r="F58" t="n">
-        <v>-1.146853678991859</v>
+        <v>-1.154973006425402</v>
       </c>
       <c r="G58" t="n">
-        <v>-0.2627989400909146</v>
+        <v>-0.2633026566822781</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>-0.1436918069054216</v>
       </c>
       <c r="E59" t="n">
-        <v>-0.7664921706849611</v>
+        <v>-0.7671126911235974</v>
       </c>
       <c r="F59" t="n">
-        <v>-1.131931987502772</v>
+        <v>-1.141943537262133</v>
       </c>
       <c r="G59" t="n">
-        <v>-0.3161739181502639</v>
+        <v>-0.3152876689590823</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>-0.1639349910517581</v>
       </c>
       <c r="E60" t="n">
-        <v>-0.834282203545852</v>
+        <v>-0.8330178018991251</v>
       </c>
       <c r="F60" t="n">
-        <v>-1.095608911097145</v>
+        <v>-1.103411408094962</v>
       </c>
       <c r="G60" t="n">
-        <v>-0.3486059663936188</v>
+        <v>-0.3491870655338005</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>-0.1806623646767017</v>
       </c>
       <c r="E61" t="n">
-        <v>-0.9603398356187273</v>
+        <v>-0.963078885837272</v>
       </c>
       <c r="F61" t="n">
-        <v>-1.08419133502624</v>
+        <v>-1.094345969498509</v>
       </c>
       <c r="G61" t="n">
-        <v>-0.3917080460853345</v>
+        <v>-0.3920803583485162</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>-0.1936186592148096</v>
       </c>
       <c r="E62" t="n">
-        <v>-1.079433038297968</v>
+        <v>-1.084587008058876</v>
       </c>
       <c r="F62" t="n">
-        <v>-1.083335746844967</v>
+        <v>-1.094109441707782</v>
       </c>
       <c r="G62" t="n">
-        <v>-0.4311176641551421</v>
+        <v>-0.4337428306225959</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>-0.2027129959951457</v>
       </c>
       <c r="E63" t="n">
-        <v>-1.140997426099224</v>
+        <v>-1.143789038049042</v>
       </c>
       <c r="F63" t="n">
-        <v>-1.122425614382865</v>
+        <v>-1.133113166408317</v>
       </c>
       <c r="G63" t="n">
-        <v>-0.4891326750473993</v>
+        <v>-0.4926689115235801</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>-0.2082643368702354</v>
       </c>
       <c r="E64" t="n">
-        <v>-1.236300605185199</v>
+        <v>-1.240857415276925</v>
       </c>
       <c r="F64" t="n">
-        <v>-1.150784128452585</v>
+        <v>-1.161827932212219</v>
       </c>
       <c r="G64" t="n">
-        <v>-0.5189614575446639</v>
+        <v>-0.5211967911718451</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>-0.2110244779227129</v>
       </c>
       <c r="E65" t="n">
-        <v>-1.35912277068862</v>
+        <v>-1.370211835939072</v>
       </c>
       <c r="F65" t="n">
-        <v>-1.109251600458596</v>
+        <v>-1.122599360105684</v>
       </c>
       <c r="G65" t="n">
-        <v>-0.5444962386065662</v>
+        <v>-0.5464965044911111</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>-0.2118077032737945</v>
       </c>
       <c r="E66" t="n">
-        <v>-1.419009563233422</v>
+        <v>-1.429735076509238</v>
       </c>
       <c r="F66" t="n">
-        <v>-1.18601216879003</v>
+        <v>-1.201330993359844</v>
       </c>
       <c r="G66" t="n">
-        <v>-0.5984829768160063</v>
+        <v>-0.6005796058745512</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>-0.2116037428197449</v>
       </c>
       <c r="E67" t="n">
-        <v>-1.521620283014395</v>
+        <v>-1.52988707530512</v>
       </c>
       <c r="F67" t="n">
-        <v>-1.276475288454642</v>
+        <v>-1.291621827349729</v>
       </c>
       <c r="G67" t="n">
-        <v>-0.6465652805458115</v>
+        <v>-0.6457812347209936</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>-0.2114681374076626</v>
       </c>
       <c r="E68" t="n">
-        <v>-1.554436323905659</v>
+        <v>-1.556515432387113</v>
       </c>
       <c r="F68" t="n">
-        <v>-1.345056667380806</v>
+        <v>-1.360876288445801</v>
       </c>
       <c r="G68" t="n">
-        <v>-0.6692208467724418</v>
+        <v>-0.6693274302830782</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>-0.2120120844151315</v>
       </c>
       <c r="E69" t="n">
-        <v>-1.622836656868549</v>
+        <v>-1.62264539056864</v>
       </c>
       <c r="F69" t="n">
-        <v>-1.426949304751784</v>
+        <v>-1.443193799811234</v>
       </c>
       <c r="G69" t="n">
-        <v>-0.6679681255104422</v>
+        <v>-0.6652801769750792</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>-0.2139716402111481</v>
       </c>
       <c r="E70" t="n">
-        <v>-1.680304149726716</v>
+        <v>-1.677664382778353</v>
       </c>
       <c r="F70" t="n">
-        <v>-1.504823889776581</v>
+        <v>-1.51864032486085</v>
       </c>
       <c r="G70" t="n">
-        <v>-0.691109887751345</v>
+        <v>-0.6898089849023453</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>-0.2171855061491458</v>
       </c>
       <c r="E71" t="n">
-        <v>-1.709026215771072</v>
+        <v>-1.710280397081162</v>
       </c>
       <c r="F71" t="n">
-        <v>-1.616168617237369</v>
+        <v>-1.629371832123457</v>
       </c>
       <c r="G71" t="n">
-        <v>-0.7285995425816076</v>
+        <v>-0.7303282395212436</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>-0.2214354485476693</v>
       </c>
       <c r="E72" t="n">
-        <v>-1.690873437856804</v>
+        <v>-1.690374101409713</v>
       </c>
       <c r="F72" t="n">
-        <v>-1.705993695886254</v>
+        <v>-1.722702486238614</v>
       </c>
       <c r="G72" t="n">
-        <v>-0.7519019101125105</v>
+        <v>-0.7525282707435104</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>-0.2262679740460103</v>
       </c>
       <c r="E73" t="n">
-        <v>-1.677181106860262</v>
+        <v>-1.677484796863171</v>
       </c>
       <c r="F73" t="n">
-        <v>-1.761019988336421</v>
+        <v>-1.775529946263872</v>
       </c>
       <c r="G73" t="n">
-        <v>-0.7772176839607764</v>
+        <v>-0.7745822971566863</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>-0.2310642178724557</v>
       </c>
       <c r="E74" t="n">
-        <v>-1.626635702001094</v>
+        <v>-1.629253568228093</v>
       </c>
       <c r="F74" t="n">
-        <v>-1.837140325579992</v>
+        <v>-1.846910967404353</v>
       </c>
       <c r="G74" t="n">
-        <v>-0.7710606611614145</v>
+        <v>-0.7711424238545054</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>-0.2344364958943848</v>
       </c>
       <c r="E75" t="n">
-        <v>-1.538494058801027</v>
+        <v>-1.541125065460844</v>
       </c>
       <c r="F75" t="n">
-        <v>-1.942766774692736</v>
+        <v>-1.949139154585507</v>
       </c>
       <c r="G75" t="n">
-        <v>-0.7763372749619585</v>
+        <v>-0.7747399823505043</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>-0.2364749341232545</v>
       </c>
       <c r="E76" t="n">
-        <v>-1.422591061200421</v>
+        <v>-1.422577920767603</v>
       </c>
       <c r="F76" t="n">
-        <v>-1.999167702420494</v>
+        <v>-2.002392948653311</v>
       </c>
       <c r="G76" t="n">
-        <v>-0.7646057885515071</v>
+        <v>-0.7621675082396896</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>-0.2365866700548825</v>
       </c>
       <c r="E77" t="n">
-        <v>-1.290837781524911</v>
+        <v>-1.287723498947003</v>
       </c>
       <c r="F77" t="n">
-        <v>-2.049056085638753</v>
+        <v>-2.053282194837888</v>
       </c>
       <c r="G77" t="n">
-        <v>-0.7524202271847831</v>
+        <v>-0.7489818139306931</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>-0.2345503940693785</v>
       </c>
       <c r="E78" t="n">
-        <v>-1.115906499656958</v>
+        <v>-1.105737264703779</v>
       </c>
       <c r="F78" t="n">
-        <v>-2.080113498604518</v>
+        <v>-2.08072014858629</v>
       </c>
       <c r="G78" t="n">
-        <v>-0.728177588683335</v>
+        <v>-0.7233813307047</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>-0.2305090486044359</v>
       </c>
       <c r="E79" t="n">
-        <v>-0.9609559759130907</v>
+        <v>-0.9443815099850952</v>
       </c>
       <c r="F79" t="n">
-        <v>-2.076434907439473</v>
+        <v>-2.077497092425609</v>
       </c>
       <c r="G79" t="n">
-        <v>-0.6722343860320773</v>
+        <v>-0.6684528614766239</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>-0.2242595555292148</v>
       </c>
       <c r="E80" t="n">
-        <v>-0.7169571191047017</v>
+        <v>-0.701568212226524</v>
       </c>
       <c r="F80" t="n">
-        <v>-2.115957679236326</v>
+        <v>-2.111719889652464</v>
       </c>
       <c r="G80" t="n">
-        <v>-0.6088405579729126</v>
+        <v>-0.6094420977863669</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>-0.2161391900151866</v>
       </c>
       <c r="E81" t="n">
-        <v>-0.4586921324000438</v>
+        <v>-0.444744292987593</v>
       </c>
       <c r="F81" t="n">
-        <v>-2.120175758170961</v>
+        <v>-2.113916532005236</v>
       </c>
       <c r="G81" t="n">
-        <v>-0.5155245043386649</v>
+        <v>-0.5157829328507557</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>-0.2064398033936208</v>
       </c>
       <c r="E82" t="n">
-        <v>-0.1623841326386688</v>
+        <v>-0.1551349938673071</v>
       </c>
       <c r="F82" t="n">
-        <v>-2.103283001759148</v>
+        <v>-2.098902857486422</v>
       </c>
       <c r="G82" t="n">
-        <v>-0.44543051559032</v>
+        <v>-0.4470453287788651</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>-0.1951429107701525</v>
       </c>
       <c r="E83" t="n">
-        <v>0.1424315673484312</v>
+        <v>0.1447296830435215</v>
       </c>
       <c r="F83" t="n">
-        <v>-2.02952137220644</v>
+        <v>-2.032034114970894</v>
       </c>
       <c r="G83" t="n">
-        <v>-0.3287624527900787</v>
+        <v>-0.3328286867232594</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>-0.1830348905521793</v>
       </c>
       <c r="E84" t="n">
-        <v>0.4924707969033372</v>
+        <v>0.489147727448429</v>
       </c>
       <c r="F84" t="n">
-        <v>-1.970018572309547</v>
+        <v>-1.974947694664455</v>
       </c>
       <c r="G84" t="n">
-        <v>-0.2492263330378273</v>
+        <v>-0.252477860136281</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>-0.1706321507652459</v>
       </c>
       <c r="E85" t="n">
-        <v>0.8057854368276167</v>
+        <v>0.7957987078858012</v>
       </c>
       <c r="F85" t="n">
-        <v>-1.897132241587339</v>
+        <v>-1.902899431546429</v>
       </c>
       <c r="G85" t="n">
-        <v>-0.1738528103927566</v>
+        <v>-0.1785527051973917</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>-0.1578629889185017</v>
       </c>
       <c r="E86" t="n">
-        <v>1.119742497911896</v>
+        <v>1.110688739700171</v>
       </c>
       <c r="F86" t="n">
-        <v>-1.844150016464444</v>
+        <v>-1.852614645271488</v>
       </c>
       <c r="G86" t="n">
-        <v>-0.1046085696333207</v>
+        <v>-0.1051560876674114</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>-0.1462569185842348</v>
       </c>
       <c r="E87" t="n">
-        <v>1.36095266286665</v>
+        <v>1.35512123079156</v>
       </c>
       <c r="F87" t="n">
-        <v>-1.662660928596175</v>
+        <v>-1.677762206000444</v>
       </c>
       <c r="G87" t="n">
-        <v>-0.05765196298160601</v>
+        <v>-0.05925801588160558</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>-0.1357893799355681</v>
       </c>
       <c r="E88" t="n">
-        <v>1.585281751794317</v>
+        <v>1.578752416731773</v>
       </c>
       <c r="F88" t="n">
-        <v>-1.477899142932134</v>
+        <v>-1.497338223214492</v>
       </c>
       <c r="G88" t="n">
-        <v>0.009786198289375877</v>
+        <v>0.009724876269557712</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>-0.127262840546421</v>
       </c>
       <c r="E89" t="n">
-        <v>1.779148397353264</v>
+        <v>1.767865145706722</v>
       </c>
       <c r="F89" t="n">
-        <v>-1.237043769663471</v>
+        <v>-1.265002230556282</v>
       </c>
       <c r="G89" t="n">
-        <v>0.06717338850254229</v>
+        <v>0.06589438637490627</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>-0.1223909350470183</v>
       </c>
       <c r="E90" t="n">
-        <v>1.96343566738776</v>
+        <v>1.949498048311946</v>
       </c>
       <c r="F90" t="n">
-        <v>-1.003011201123625</v>
+        <v>-1.035800961149252</v>
       </c>
       <c r="G90" t="n">
-        <v>0.09796726278789765</v>
+        <v>0.09782563812307951</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>-0.1222661234565478</v>
       </c>
       <c r="E91" t="n">
-        <v>2.150013752876892</v>
+        <v>2.132983751944533</v>
       </c>
       <c r="F91" t="n">
-        <v>-0.7754904470692314</v>
+        <v>-0.8114689521254036</v>
       </c>
       <c r="G91" t="n">
-        <v>0.08207025917408374</v>
+        <v>0.08176218902690201</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>-0.1284975999041776</v>
       </c>
       <c r="E92" t="n">
-        <v>2.260917545814226</v>
+        <v>2.247638408427411</v>
       </c>
       <c r="F92" t="n">
-        <v>-0.5737585224445584</v>
+        <v>-0.6104480709210031</v>
       </c>
       <c r="G92" t="n">
-        <v>0.08976617266126349</v>
+        <v>0.09160437320771754</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>-0.141601154885225</v>
       </c>
       <c r="E93" t="n">
-        <v>2.367268908804106</v>
+        <v>2.350684222539475</v>
       </c>
       <c r="F93" t="n">
-        <v>-0.323576361971171</v>
+        <v>-0.3624078009969787</v>
       </c>
       <c r="G93" t="n">
-        <v>0.03877983327864082</v>
+        <v>0.04243871379445802</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>-0.1607421073968225</v>
       </c>
       <c r="E94" t="n">
-        <v>2.382891423376829</v>
+        <v>2.369753910654833</v>
       </c>
       <c r="F94" t="n">
-        <v>-0.1814304599845728</v>
+        <v>-0.2204283444927441</v>
       </c>
       <c r="G94" t="n">
-        <v>0.004176693524104657</v>
+        <v>0.007346457929467442</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>-0.1845188644980362</v>
       </c>
       <c r="E95" t="n">
-        <v>2.332524144384752</v>
+        <v>2.324460298778663</v>
       </c>
       <c r="F95" t="n">
-        <v>-0.02254218653952453</v>
+        <v>-0.05730447153596974</v>
       </c>
       <c r="G95" t="n">
-        <v>-0.03147184066352213</v>
+        <v>-0.02899559910134098</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>-0.2109414907548062</v>
       </c>
       <c r="E96" t="n">
-        <v>2.230012707873962</v>
+        <v>2.225987355287326</v>
       </c>
       <c r="F96" t="n">
-        <v>0.09925648525217004</v>
+        <v>0.06320789788763426</v>
       </c>
       <c r="G96" t="n">
-        <v>-0.07584124209814659</v>
+        <v>-0.07150051912387502</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>-0.2376974306531249</v>
       </c>
       <c r="E97" t="n">
-        <v>2.087215624438818</v>
+        <v>2.078445115556729</v>
       </c>
       <c r="F97" t="n">
-        <v>0.162824059034153</v>
+        <v>0.133639157744979</v>
       </c>
       <c r="G97" t="n">
-        <v>-0.1315610573914953</v>
+        <v>-0.1264508890733148</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>-0.2643868684517807</v>
       </c>
       <c r="E98" t="n">
-        <v>1.892616034738234</v>
+        <v>1.886037058040599</v>
       </c>
       <c r="F98" t="n">
-        <v>0.2226743503766823</v>
+        <v>0.1987354018781433</v>
       </c>
       <c r="G98" t="n">
-        <v>-0.1412221956090381</v>
+        <v>-0.1403958083895838</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>-0.2894724736431922</v>
       </c>
       <c r="E99" t="n">
-        <v>1.695427779772469</v>
+        <v>1.689494144331016</v>
       </c>
       <c r="F99" t="n">
-        <v>0.2269362307540448</v>
+        <v>0.2076285547998682</v>
       </c>
       <c r="G99" t="n">
-        <v>-0.1330400861075858</v>
+        <v>-0.1339234152025855</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>-0.3123697476654627</v>
       </c>
       <c r="E100" t="n">
-        <v>1.543306829228782</v>
+        <v>1.532445531480513</v>
       </c>
       <c r="F100" t="n">
-        <v>0.2467125821454032</v>
+        <v>0.2315937841640436</v>
       </c>
       <c r="G100" t="n">
-        <v>-0.1319041686928588</v>
+        <v>-0.1306675079598591</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>-0.3307123825441703</v>
       </c>
       <c r="E101" t="n">
-        <v>1.402933425624547</v>
+        <v>1.389658668382005</v>
       </c>
       <c r="F101" t="n">
-        <v>0.231938355513498</v>
+        <v>0.2220509098418643</v>
       </c>
       <c r="G101" t="n">
-        <v>-0.1100837499742283</v>
+        <v>-0.111143744888228</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>-0.3428883316940595</v>
       </c>
       <c r="E102" t="n">
-        <v>1.231604082396866</v>
+        <v>1.209834765361417</v>
       </c>
       <c r="F102" t="n">
-        <v>0.2437267837994949</v>
+        <v>0.2360410906489515</v>
       </c>
       <c r="G102" t="n">
-        <v>-0.1420018612895834</v>
+        <v>-0.1423902340817651</v>
       </c>
     </row>
   </sheetData>
